--- a/python/Statistics/Results/Monthly_trends_RSTs_ERA_2_5_1979-2016.xlsx
+++ b/python/Statistics/Results/Monthly_trends_RSTs_ERA_2_5_1979-2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02CC07-250B-4BA3-8EB6-D5540CD02BA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78982FBD-8C29-4939-BD9E-ED2D46659081}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,13 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -309,19 +316,19 @@
                   <c:v>4.9736842105263159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7222222222222223</c:v>
+                  <c:v>3.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1481481481481484</c:v>
+                  <c:v>1.5263157894736843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3125</c:v>
+                  <c:v>0.55263157894736847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2105263157894739</c:v>
+                  <c:v>1.1052631578947369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5833333333333335</c:v>
+                  <c:v>3.3947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10.578947368421053</c:v>
@@ -523,7 +530,1383 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Total RSTs - Full</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Year (ERA 2.5)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6706036745406825E-2"/>
+                  <c:y val="0.28045648705676496"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8184859245535484E-2"/>
+                  <c:y val="0.19875714065153621"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]All RSTs'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$14:$AM$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ABE9-45FB-9496-2AF6EB038338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1386583503"/>
+        <c:axId val="1394791103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1386583503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394791103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1394791103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386583503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Total RSTs - Oct-Dec (ERA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> 2.5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0201551626580127E-2"/>
+                  <c:y val="0.24904342917343703"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4766951669020995E-5"/>
+                  <c:y val="0.14826032796223818"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]All RSTs'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$15:$AM$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-597D-4238-AE58-2232619D1C77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1515041551"/>
+        <c:axId val="1386877615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1515041551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386877615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1386877615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515041551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1066,20 +2449,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1106,6 +3521,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B59C5F9-EE05-4306-A81D-3CFC474E6A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2684F5-E065-413C-8276-E9D63E6E1278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1118,110 +3609,132 @@
       <sheetName val="West"/>
       <sheetName val="Central"/>
       <sheetName val="All RSTs"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Jan</v>
+        <row r="1">
+          <cell r="B1">
+            <v>1979</v>
           </cell>
-          <cell r="AN2">
-            <v>11.5</v>
+          <cell r="C1">
+            <v>1980</v>
           </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Feb</v>
+          <cell r="D1">
+            <v>1981</v>
           </cell>
-          <cell r="AN3">
-            <v>9.9729729729729737</v>
+          <cell r="E1">
+            <v>1982</v>
           </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Mar</v>
+          <cell r="F1">
+            <v>1983</v>
           </cell>
-          <cell r="AN4">
-            <v>8.526315789473685</v>
+          <cell r="G1">
+            <v>1984</v>
           </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Apr</v>
+          <cell r="H1">
+            <v>1985</v>
           </cell>
-          <cell r="AN5">
-            <v>6.3421052631578947</v>
+          <cell r="I1">
+            <v>1986</v>
           </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
+          <cell r="J1">
+            <v>1987</v>
           </cell>
-          <cell r="AN6">
-            <v>4.7368421052631575</v>
+          <cell r="K1">
+            <v>1988</v>
           </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Jun</v>
+          <cell r="L1">
+            <v>1989</v>
           </cell>
-          <cell r="AN7">
-            <v>2.967741935483871</v>
+          <cell r="M1">
+            <v>1990</v>
           </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jul</v>
+          <cell r="N1">
+            <v>1991</v>
           </cell>
-          <cell r="AN8">
-            <v>1.6666666666666667</v>
+          <cell r="O1">
+            <v>1992</v>
           </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Aug</v>
+          <cell r="P1">
+            <v>1993</v>
           </cell>
-          <cell r="AN9">
-            <v>2.3809523809523809</v>
+          <cell r="Q1">
+            <v>1994</v>
           </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Sep</v>
+          <cell r="R1">
+            <v>1995</v>
           </cell>
-          <cell r="AN10">
-            <v>4.75</v>
+          <cell r="S1">
+            <v>1996</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Oct</v>
+          <cell r="T1">
+            <v>1997</v>
           </cell>
-          <cell r="AN11">
-            <v>11.421052631578947</v>
+          <cell r="U1">
+            <v>1998</v>
           </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Nov</v>
+          <cell r="V1">
+            <v>1999</v>
           </cell>
-          <cell r="AN12">
-            <v>14.631578947368421</v>
+          <cell r="W1">
+            <v>2000</v>
           </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Dec</v>
+          <cell r="X1">
+            <v>2001</v>
           </cell>
-          <cell r="AN13">
-            <v>13.605263157894736</v>
+          <cell r="Y1">
+            <v>2002</v>
+          </cell>
+          <cell r="Z1">
+            <v>2003</v>
+          </cell>
+          <cell r="AA1">
+            <v>2004</v>
+          </cell>
+          <cell r="AB1">
+            <v>2005</v>
+          </cell>
+          <cell r="AC1">
+            <v>2006</v>
+          </cell>
+          <cell r="AD1">
+            <v>2007</v>
+          </cell>
+          <cell r="AE1">
+            <v>2008</v>
+          </cell>
+          <cell r="AF1">
+            <v>2009</v>
+          </cell>
+          <cell r="AG1">
+            <v>2010</v>
+          </cell>
+          <cell r="AH1">
+            <v>2011</v>
+          </cell>
+          <cell r="AI1">
+            <v>2012</v>
+          </cell>
+          <cell r="AJ1">
+            <v>2013</v>
+          </cell>
+          <cell r="AK1">
+            <v>2014</v>
+          </cell>
+          <cell r="AL1">
+            <v>2015</v>
+          </cell>
+          <cell r="AM1">
+            <v>2016</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1518,12 +4031,12 @@
       <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="40" max="40" width="8.83984375" style="4"/>
+    <col min="40" max="40" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
@@ -1680,7 +4193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1799,11 +4312,11 @@
         <v>23</v>
       </c>
       <c r="AN2" s="4">
-        <f>AVERAGE(B2:AM2)</f>
+        <f t="shared" ref="AN2:AN13" si="1">AVERAGE(B2:AM2)</f>
         <v>20.342105263157894</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1922,11 +4435,11 @@
         <v>21</v>
       </c>
       <c r="AN3" s="4">
-        <f>AVERAGE(B3:AM3)</f>
+        <f t="shared" si="1"/>
         <v>20.342105263157894</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2045,11 +4558,11 @@
         <v>26</v>
       </c>
       <c r="AN4" s="4">
-        <f>AVERAGE(B4:AM4)</f>
+        <f t="shared" si="1"/>
         <v>24.44736842105263</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2168,11 +4681,11 @@
         <v>22</v>
       </c>
       <c r="AN5" s="4">
-        <f>AVERAGE(B5:AM5)</f>
+        <f t="shared" si="1"/>
         <v>25.026315789473685</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2291,11 +4804,11 @@
         <v>28</v>
       </c>
       <c r="AN6" s="4">
-        <f>AVERAGE(B6:AM6)</f>
+        <f t="shared" si="1"/>
         <v>27.473684210526315</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2414,11 +4927,11 @@
         <v>25</v>
       </c>
       <c r="AN7" s="4">
-        <f>AVERAGE(B7:AM7)</f>
+        <f t="shared" si="1"/>
         <v>28.473684210526315</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2537,11 +5050,11 @@
         <v>31</v>
       </c>
       <c r="AN8" s="4">
-        <f>AVERAGE(B8:AM8)</f>
+        <f t="shared" si="1"/>
         <v>30.44736842105263</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2660,11 +5173,11 @@
         <v>30</v>
       </c>
       <c r="AN9" s="4">
-        <f>AVERAGE(B9:AM9)</f>
+        <f t="shared" si="1"/>
         <v>29.894736842105264</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2783,11 +5296,11 @@
         <v>29</v>
       </c>
       <c r="AN10" s="4">
-        <f>AVERAGE(B10:AM10)</f>
+        <f t="shared" si="1"/>
         <v>26.605263157894736</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2906,11 +5419,11 @@
         <v>22</v>
       </c>
       <c r="AN11" s="4">
-        <f>AVERAGE(B11:AM11)</f>
+        <f t="shared" si="1"/>
         <v>20.421052631578949</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3029,11 +5542,11 @@
         <v>12</v>
       </c>
       <c r="AN12" s="4">
-        <f>AVERAGE(B12:AM12)</f>
+        <f t="shared" si="1"/>
         <v>16.289473684210527</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +5665,7 @@
         <v>20</v>
       </c>
       <c r="AN13" s="4">
-        <f>AVERAGE(B13:AM13)</f>
+        <f t="shared" si="1"/>
         <v>19.526315789473685</v>
       </c>
     </row>
@@ -3167,9 +5680,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -3276,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>5</v>
       </c>
@@ -3383,7 +5896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3496,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3600,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3692,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -3754,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -3801,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -3848,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -3946,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -4059,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -4172,7 +6685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -4293,9 +6806,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2</v>
       </c>
@@ -4387,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
@@ -4464,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>2</v>
       </c>
@@ -4520,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4570,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -4617,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -4643,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="W8">
         <v>1</v>
       </c>
@@ -4651,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>1</v>
       </c>
@@ -4674,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>1</v>
       </c>
@@ -4712,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -4783,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
@@ -4887,7 +7400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -4999,9 +7512,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>4</v>
       </c>
@@ -5117,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
@@ -5227,7 +7740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -5328,7 +7841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -5417,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -5482,7 +7995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -5511,12 +8024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>1</v>
       </c>
@@ -5530,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -5610,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -5726,7 +8239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -5842,7 +8355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -5965,18 +8478,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="40" max="40" width="8.83984375" style="4"/>
+    <col min="40" max="40" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
@@ -6133,7 +8646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6252,11 +8765,11 @@
         <v>7</v>
       </c>
       <c r="AN2" s="4">
-        <f>AVERAGE(B2:AM2)</f>
+        <f t="shared" ref="AN2:AN13" si="1">AVERAGE(B2:AM2)</f>
         <v>9.6578947368421044</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6375,11 +8888,11 @@
         <v>8</v>
       </c>
       <c r="AN3" s="4">
-        <f>AVERAGE(B3:AM3)</f>
+        <f t="shared" si="1"/>
         <v>7.9210526315789478</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6498,11 +9011,11 @@
         <v>5</v>
       </c>
       <c r="AN4" s="4">
-        <f>AVERAGE(B4:AM4)</f>
+        <f t="shared" si="1"/>
         <v>6.5526315789473681</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6621,11 +9134,11 @@
         <v>8</v>
       </c>
       <c r="AN5" s="4">
-        <f>AVERAGE(B5:AM5)</f>
+        <f t="shared" si="1"/>
         <v>4.9736842105263159</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6665,6 +9178,9 @@
       <c r="M6">
         <v>2</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <v>5</v>
       </c>
@@ -6701,6 +9217,9 @@
       <c r="Z6">
         <v>14</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
       <c r="AB6">
         <v>5</v>
       </c>
@@ -6738,11 +9257,11 @@
         <v>3</v>
       </c>
       <c r="AN6" s="4">
-        <f>AVERAGE(B6:AM6)</f>
-        <v>3.7222222222222223</v>
+        <f t="shared" si="1"/>
+        <v>3.5263157894736841</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6770,6 +9289,9 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -6779,11 +9301,26 @@
       <c r="M7">
         <v>3</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="P7">
         <v>4</v>
       </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
       <c r="S7">
         <v>2</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -6809,6 +9346,9 @@
       <c r="AB7">
         <v>3</v>
       </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
       <c r="AD7">
         <v>1</v>
       </c>
@@ -6821,18 +9361,30 @@
       <c r="AG7">
         <v>3</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
       <c r="AI7">
         <v>2</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
       <c r="AM7">
         <v>5</v>
       </c>
       <c r="AN7" s="4">
-        <f>AVERAGE(B7:AM7)</f>
-        <v>2.1481481481481484</v>
+        <f t="shared" si="1"/>
+        <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6842,12 +9394,18 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -6857,50 +9415,119 @@
       <c r="J8">
         <v>2</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
       <c r="S8">
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
         <v>1</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
       <c r="W8">
         <v>1</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
       <c r="AA8">
         <v>2</v>
       </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
       <c r="AD8">
         <v>1</v>
       </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
       <c r="AF8">
         <v>1</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
       <c r="AI8">
         <v>3</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
       <c r="AN8" s="4">
-        <f>AVERAGE(B8:AM8)</f>
-        <v>1.3125</v>
+        <f t="shared" si="1"/>
+        <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -6914,12 +9541,33 @@
       <c r="K9">
         <v>2</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>2</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
         <v>2</v>
       </c>
@@ -6929,9 +9577,24 @@
       <c r="W9">
         <v>2</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
       <c r="AA9">
         <v>1</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
       <c r="AD9">
         <v>1</v>
       </c>
@@ -6944,6 +9607,18 @@
       <c r="AG9">
         <v>3</v>
       </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
       <c r="AL9">
         <v>5</v>
       </c>
@@ -6951,11 +9626,11 @@
         <v>1</v>
       </c>
       <c r="AN9" s="4">
-        <f>AVERAGE(B9:AM9)</f>
-        <v>2.2105263157894739</v>
+        <f t="shared" si="1"/>
+        <v>1.1052631578947369</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6968,6 +9643,9 @@
       <c r="D10">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <v>4</v>
       </c>
@@ -7043,6 +9721,9 @@
       <c r="AD10">
         <v>6</v>
       </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
       <c r="AF10">
         <v>2</v>
       </c>
@@ -7068,11 +9749,11 @@
         <v>1</v>
       </c>
       <c r="AN10" s="4">
-        <f>AVERAGE(B10:AM10)</f>
-        <v>3.5833333333333335</v>
+        <f t="shared" si="1"/>
+        <v>3.3947368421052633</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -7191,11 +9872,11 @@
         <v>9</v>
       </c>
       <c r="AN11" s="4">
-        <f>AVERAGE(B11:AM11)</f>
+        <f t="shared" si="1"/>
         <v>10.578947368421053</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -7314,11 +9995,11 @@
         <v>18</v>
       </c>
       <c r="AN12" s="4">
-        <f>AVERAGE(B12:AM12)</f>
+        <f t="shared" si="1"/>
         <v>13.710526315789474</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -7437,8 +10118,470 @@
         <v>11</v>
       </c>
       <c r="AN13" s="4">
-        <f>AVERAGE(B13:AM13)</f>
+        <f t="shared" si="1"/>
         <v>11.473684210526315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" ref="B14:AM14" si="2">SUM(B2:B13)</f>
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B11+B12+B13</f>
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AM15" si="3">C11+C12+C13</f>
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B11+B12+B13+B2+B3+B4+B5</f>
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:AM16" si="4">C11+C12+C13+C2+C3+C4+C5</f>
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <f>G11+G12+G13+G2+G3+G4+G5</f>
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
